--- a/document/Champendal_Planification.xlsx
+++ b/document/Champendal_Planification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah\Desktop\TPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F989E538-693F-4DC6-9B16-3F1EC7C5DEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45380D7D-B05B-4812-BA4C-78A9597A5A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1549,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N31" sqref="A1:N31"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3642,8 +3642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925623C9-26C1-4E02-A550-F9ACBB12D565}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3750,7 +3750,9 @@
         <v>0.125</v>
       </c>
       <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="D4" s="28">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E4" s="28"/>
       <c r="F4" s="45"/>
       <c r="G4" s="30"/>
@@ -3762,7 +3764,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="10">
         <f>SUM(C4:M4)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
@@ -3773,7 +3775,9 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="D5" s="33">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E5" s="33"/>
       <c r="F5" s="46"/>
       <c r="G5" s="33"/>
@@ -3785,7 +3789,7 @@
       <c r="M5" s="35"/>
       <c r="N5" s="10">
         <f t="shared" ref="N5:N13" si="0">SUM(C5:M5)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
@@ -3796,7 +3800,9 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="D6" s="34">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E6" s="33"/>
       <c r="F6" s="44" t="s">
         <v>40</v>
@@ -3810,7 +3816,7 @@
       <c r="M6" s="35"/>
       <c r="N6" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
@@ -3841,7 +3847,9 @@
       <c r="C8" s="33"/>
       <c r="D8" s="34"/>
       <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
+      <c r="F8" s="34">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G8" s="47"/>
       <c r="H8" s="34"/>
       <c r="I8" s="33"/>
@@ -3851,7 +3859,7 @@
       <c r="M8" s="35"/>
       <c r="N8" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
@@ -3863,7 +3871,9 @@
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="34"/>
-      <c r="E9" s="33"/>
+      <c r="E9" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F9" s="34"/>
       <c r="G9" s="47"/>
       <c r="H9" s="34"/>
@@ -3874,7 +3884,7 @@
       <c r="M9" s="35"/>
       <c r="N9" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
@@ -3909,7 +3919,9 @@
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="34"/>
-      <c r="E11" s="33"/>
+      <c r="E11" s="33">
+        <v>3.125E-2</v>
+      </c>
       <c r="F11" s="34"/>
       <c r="G11" s="47"/>
       <c r="H11" s="34"/>
@@ -3920,7 +3932,7 @@
       <c r="M11" s="35"/>
       <c r="N11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
@@ -3932,7 +3944,9 @@
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="34"/>
-      <c r="E12" s="33"/>
+      <c r="E12" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F12" s="34"/>
       <c r="G12" s="47"/>
       <c r="H12" s="34"/>
@@ -3943,7 +3957,7 @@
       <c r="M12" s="35"/>
       <c r="N12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
@@ -3955,7 +3969,9 @@
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="34"/>
-      <c r="E13" s="33"/>
+      <c r="E13" s="33">
+        <v>3.125E-2</v>
+      </c>
       <c r="G13" s="48" t="s">
         <v>39</v>
       </c>
@@ -3967,7 +3983,7 @@
       <c r="M13" s="35"/>
       <c r="N13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
@@ -3997,8 +4013,12 @@
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="10"/>
+      <c r="E15" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="F15" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="10"/>
       <c r="I15" s="12"/>
@@ -4008,7 +4028,7 @@
       <c r="M15" s="13"/>
       <c r="N15" s="10">
         <f>SUM(C15:M15)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
@@ -4021,7 +4041,9 @@
       <c r="C16" s="14"/>
       <c r="D16" s="10"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="10"/>
+      <c r="F16" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="G16" s="12"/>
       <c r="H16" s="10"/>
       <c r="I16" s="12"/>
@@ -4031,7 +4053,7 @@
       <c r="M16" s="40"/>
       <c r="N16" s="10">
         <f t="shared" ref="N16:N29" si="1">SUM(C16:M16)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
@@ -4044,8 +4066,12 @@
       <c r="C17" s="14"/>
       <c r="D17" s="10"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="12"/>
+      <c r="F17" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G17" s="12">
+        <v>6.25E-2</v>
+      </c>
       <c r="H17" s="10"/>
       <c r="I17" s="12"/>
       <c r="J17" s="51"/>
@@ -4054,7 +4080,7 @@
       <c r="M17" s="40"/>
       <c r="N17" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
@@ -4068,7 +4094,9 @@
       <c r="D18" s="10"/>
       <c r="E18" s="14"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="12">
+        <v>0.125</v>
+      </c>
       <c r="H18" s="10"/>
       <c r="I18" s="12"/>
       <c r="J18" s="51"/>
@@ -4077,7 +4105,7 @@
       <c r="M18" s="40"/>
       <c r="N18" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
@@ -4244,10 +4272,18 @@
       <c r="C26" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="D26" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E26" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F26" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G26" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -4256,7 +4292,7 @@
       <c r="M26" s="12"/>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.20833333333333331</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
@@ -4269,10 +4305,18 @@
       <c r="C27" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="D27" s="12">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E27" s="12">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F27" s="12">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G27" s="12">
+        <v>6.25E-2</v>
+      </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -4281,7 +4325,7 @@
       <c r="M27" s="12"/>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
@@ -4341,19 +4385,19 @@
       </c>
       <c r="D30" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E30" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F30" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="G30" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="H30" s="10">
         <f t="shared" si="2"/>
@@ -4383,11 +4427,11 @@
     <row r="31" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M31" s="10">
         <f>SUM(C30:M30)</f>
-        <v>0.33333333333333331</v>
+        <v>1.6041666666666665</v>
       </c>
       <c r="N31" s="10">
         <f>SUM(N2:N29)</f>
-        <v>0.33333333333333331</v>
+        <v>1.6041666666666667</v>
       </c>
     </row>
   </sheetData>
